--- a/assets/templates/import-organizations-template.xlsx
+++ b/assets/templates/import-organizations-template.xlsx
@@ -8,11 +8,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh5EMJo5wtKz6ufmsL3CaQwfeE4qQ=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="296">
   <si>
     <t>Example</t>
   </si>
@@ -426,7 +431,7 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Greeland</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Grenada</t>
@@ -435,7 +440,7 @@
     <t>Gaum</t>
   </si>
   <si>
-    <t>Gautemala</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Guernsey</t>
@@ -609,6 +614,9 @@
     <t>Monaco</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -876,7 +884,7 @@
     <t>Vatican City</t>
   </si>
   <si>
-    <t>Venezuele</t>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -901,21 +909,6 @@
   </si>
   <si>
     <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Western Sahara*</t>
-  </si>
-  <si>
-    <t>Windward Islands</t>
   </si>
 </sst>
 </file>
@@ -954,6 +947,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -964,6 +958,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
@@ -972,11 +970,6 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1190,9 +1183,11 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -1274,25 +1269,23 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="15" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="15" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1525,8 +1518,7 @@
     <col customWidth="1" min="8" max="8" width="29.71"/>
     <col customWidth="1" min="9" max="9" width="40.71"/>
     <col customWidth="1" min="10" max="13" width="29.71"/>
-    <col customWidth="1" min="14" max="21" width="29.86"/>
-    <col customWidth="1" min="22" max="35" width="10.71"/>
+    <col customWidth="1" min="14" max="15" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -2526,1140 +2518,1140 @@
     <row r="220" ht="12.75" customHeight="1">
       <c r="D220" s="24"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
-      <c r="D221" s="24"/>
-    </row>
-    <row r="222" ht="12.75" customHeight="1">
-      <c r="D222" s="24"/>
-    </row>
-    <row r="223" ht="12.75" customHeight="1">
-      <c r="D223" s="24"/>
-    </row>
-    <row r="224" ht="12.75" customHeight="1">
-      <c r="D224" s="24"/>
-    </row>
-    <row r="225" ht="12.75" customHeight="1">
-      <c r="D225" s="24"/>
-    </row>
-    <row r="226" ht="12.75" customHeight="1">
-      <c r="D226" s="24"/>
-    </row>
-    <row r="227" ht="12.75" customHeight="1">
-      <c r="D227" s="24"/>
-    </row>
-    <row r="228" ht="12.75" customHeight="1">
-      <c r="D228" s="24"/>
-    </row>
-    <row r="229" ht="12.75" customHeight="1">
-      <c r="D229" s="24"/>
-    </row>
-    <row r="230" ht="12.75" customHeight="1">
-      <c r="D230" s="24"/>
-    </row>
-    <row r="231" ht="12.75" customHeight="1">
-      <c r="D231" s="24"/>
-    </row>
-    <row r="232" ht="12.75" customHeight="1">
-      <c r="D232" s="24"/>
-    </row>
-    <row r="233" ht="12.75" customHeight="1">
-      <c r="D233" s="24"/>
-    </row>
-    <row r="234" ht="12.75" customHeight="1">
-      <c r="D234" s="24"/>
-    </row>
-    <row r="235" ht="12.75" customHeight="1">
-      <c r="D235" s="24"/>
-    </row>
-    <row r="236" ht="12.75" customHeight="1">
-      <c r="D236" s="24"/>
-    </row>
-    <row r="237" ht="12.75" customHeight="1">
-      <c r="D237" s="24"/>
-    </row>
-    <row r="238" ht="12.75" customHeight="1">
-      <c r="D238" s="24"/>
-    </row>
-    <row r="239" ht="12.75" customHeight="1">
-      <c r="D239" s="24"/>
-    </row>
-    <row r="240" ht="12.75" customHeight="1">
-      <c r="D240" s="24"/>
-    </row>
-    <row r="241" ht="12.75" customHeight="1">
-      <c r="D241" s="24"/>
-    </row>
-    <row r="242" ht="12.75" customHeight="1">
-      <c r="D242" s="24"/>
-    </row>
-    <row r="243" ht="12.75" customHeight="1">
-      <c r="D243" s="24"/>
-    </row>
-    <row r="244" ht="12.75" customHeight="1">
-      <c r="D244" s="24"/>
-    </row>
-    <row r="245" ht="12.75" customHeight="1">
-      <c r="D245" s="24"/>
-    </row>
-    <row r="246" ht="12.75" customHeight="1">
-      <c r="D246" s="24"/>
-    </row>
-    <row r="247" ht="12.75" customHeight="1">
-      <c r="D247" s="24"/>
-    </row>
-    <row r="248" ht="12.75" customHeight="1">
-      <c r="D248" s="24"/>
-    </row>
-    <row r="249" ht="12.75" customHeight="1">
-      <c r="D249" s="24"/>
-    </row>
-    <row r="250" ht="12.75" customHeight="1">
-      <c r="D250" s="24"/>
-    </row>
-    <row r="251" ht="12.75" customHeight="1">
-      <c r="D251" s="24"/>
-    </row>
-    <row r="252" ht="12.75" customHeight="1">
-      <c r="D252" s="24"/>
-    </row>
-    <row r="253" ht="12.75" customHeight="1">
-      <c r="D253" s="24"/>
-    </row>
-    <row r="254" ht="12.75" customHeight="1">
-      <c r="D254" s="24"/>
-    </row>
-    <row r="255" ht="12.75" customHeight="1">
-      <c r="D255" s="24"/>
-    </row>
-    <row r="256" ht="12.75" customHeight="1">
-      <c r="D256" s="24"/>
-    </row>
-    <row r="257" ht="12.75" customHeight="1">
-      <c r="D257" s="24"/>
-    </row>
-    <row r="258" ht="12.75" customHeight="1">
-      <c r="D258" s="24"/>
-    </row>
-    <row r="259" ht="12.75" customHeight="1">
-      <c r="D259" s="24"/>
-    </row>
-    <row r="260" ht="12.75" customHeight="1">
-      <c r="D260" s="24"/>
-    </row>
-    <row r="261" ht="12.75" customHeight="1">
-      <c r="D261" s="24"/>
-    </row>
-    <row r="262" ht="12.75" customHeight="1">
-      <c r="D262" s="24"/>
-    </row>
-    <row r="263" ht="12.75" customHeight="1">
-      <c r="D263" s="24"/>
-    </row>
-    <row r="264" ht="12.75" customHeight="1">
-      <c r="D264" s="24"/>
-    </row>
-    <row r="265" ht="12.75" customHeight="1">
-      <c r="D265" s="24"/>
-    </row>
-    <row r="266" ht="12.75" customHeight="1">
-      <c r="D266" s="24"/>
-    </row>
-    <row r="267" ht="12.75" customHeight="1">
-      <c r="D267" s="24"/>
-    </row>
-    <row r="268" ht="12.75" customHeight="1">
-      <c r="D268" s="24"/>
-    </row>
-    <row r="269" ht="12.75" customHeight="1">
-      <c r="D269" s="24"/>
-    </row>
-    <row r="270" ht="12.75" customHeight="1">
-      <c r="D270" s="24"/>
-    </row>
-    <row r="271" ht="12.75" customHeight="1">
-      <c r="D271" s="24"/>
-    </row>
-    <row r="272" ht="12.75" customHeight="1">
-      <c r="D272" s="24"/>
-    </row>
-    <row r="273" ht="12.75" customHeight="1">
-      <c r="D273" s="24"/>
-    </row>
-    <row r="274" ht="12.75" customHeight="1">
-      <c r="D274" s="24"/>
-    </row>
-    <row r="275" ht="12.75" customHeight="1">
-      <c r="D275" s="24"/>
-    </row>
-    <row r="276" ht="12.75" customHeight="1">
-      <c r="D276" s="24"/>
-    </row>
-    <row r="277" ht="12.75" customHeight="1">
-      <c r="D277" s="24"/>
-    </row>
-    <row r="278" ht="12.75" customHeight="1">
-      <c r="D278" s="24"/>
-    </row>
-    <row r="279" ht="12.75" customHeight="1">
-      <c r="D279" s="24"/>
-    </row>
-    <row r="280" ht="12.75" customHeight="1">
-      <c r="D280" s="24"/>
-    </row>
-    <row r="281" ht="12.75" customHeight="1">
-      <c r="D281" s="24"/>
-    </row>
-    <row r="282" ht="12.75" customHeight="1">
-      <c r="D282" s="24"/>
-    </row>
-    <row r="283" ht="12.75" customHeight="1">
-      <c r="D283" s="24"/>
-    </row>
-    <row r="284" ht="12.75" customHeight="1">
-      <c r="D284" s="24"/>
-    </row>
-    <row r="285" ht="12.75" customHeight="1">
-      <c r="D285" s="24"/>
-    </row>
-    <row r="286" ht="12.75" customHeight="1">
-      <c r="D286" s="24"/>
-    </row>
-    <row r="287" ht="12.75" customHeight="1">
-      <c r="D287" s="24"/>
-    </row>
-    <row r="288" ht="12.75" customHeight="1">
-      <c r="D288" s="24"/>
-    </row>
-    <row r="289" ht="12.75" customHeight="1">
-      <c r="D289" s="24"/>
-    </row>
-    <row r="290" ht="12.75" customHeight="1">
-      <c r="D290" s="24"/>
-    </row>
-    <row r="291" ht="12.75" customHeight="1">
-      <c r="D291" s="24"/>
-    </row>
-    <row r="292" ht="12.75" customHeight="1">
-      <c r="D292" s="24"/>
-    </row>
-    <row r="293" ht="12.75" customHeight="1">
-      <c r="D293" s="24"/>
-    </row>
-    <row r="294" ht="12.75" customHeight="1">
-      <c r="D294" s="24"/>
-    </row>
-    <row r="295" ht="12.75" customHeight="1">
-      <c r="D295" s="24"/>
-    </row>
-    <row r="296" ht="12.75" customHeight="1">
-      <c r="D296" s="24"/>
-    </row>
-    <row r="297" ht="12.75" customHeight="1">
-      <c r="D297" s="24"/>
-    </row>
-    <row r="298" ht="12.75" customHeight="1">
-      <c r="D298" s="24"/>
-    </row>
-    <row r="299" ht="12.75" customHeight="1">
-      <c r="D299" s="24"/>
-    </row>
-    <row r="300" ht="12.75" customHeight="1">
-      <c r="D300" s="24"/>
-    </row>
-    <row r="301" ht="12.75" customHeight="1">
-      <c r="D301" s="24"/>
-    </row>
-    <row r="302" ht="12.75" customHeight="1">
-      <c r="D302" s="24"/>
-    </row>
-    <row r="303" ht="12.75" customHeight="1">
-      <c r="D303" s="24"/>
-    </row>
-    <row r="304" ht="12.75" customHeight="1">
-      <c r="D304" s="24"/>
-    </row>
-    <row r="305" ht="12.75" customHeight="1">
-      <c r="D305" s="24"/>
-    </row>
-    <row r="306" ht="12.75" customHeight="1">
-      <c r="D306" s="24"/>
-    </row>
-    <row r="307" ht="12.75" customHeight="1">
-      <c r="D307" s="24"/>
-    </row>
-    <row r="308" ht="12.75" customHeight="1">
-      <c r="D308" s="24"/>
-    </row>
-    <row r="309" ht="12.75" customHeight="1">
-      <c r="D309" s="24"/>
-    </row>
-    <row r="310" ht="12.75" customHeight="1">
-      <c r="D310" s="24"/>
-    </row>
-    <row r="311" ht="12.75" customHeight="1">
-      <c r="D311" s="24"/>
-    </row>
-    <row r="312" ht="12.75" customHeight="1">
-      <c r="D312" s="24"/>
-    </row>
-    <row r="313" ht="12.75" customHeight="1">
-      <c r="D313" s="24"/>
-    </row>
-    <row r="314" ht="12.75" customHeight="1">
-      <c r="D314" s="24"/>
-    </row>
-    <row r="315" ht="12.75" customHeight="1">
-      <c r="D315" s="24"/>
-    </row>
-    <row r="316" ht="12.75" customHeight="1">
-      <c r="D316" s="24"/>
-    </row>
-    <row r="317" ht="12.75" customHeight="1">
-      <c r="D317" s="24"/>
-    </row>
-    <row r="318" ht="12.75" customHeight="1">
-      <c r="D318" s="24"/>
-    </row>
-    <row r="319" ht="12.75" customHeight="1">
-      <c r="D319" s="24"/>
-    </row>
-    <row r="320" ht="12.75" customHeight="1">
-      <c r="D320" s="24"/>
-    </row>
-    <row r="321" ht="12.75" customHeight="1">
-      <c r="D321" s="24"/>
-    </row>
-    <row r="322" ht="12.75" customHeight="1">
-      <c r="D322" s="24"/>
-    </row>
-    <row r="323" ht="12.75" customHeight="1">
-      <c r="D323" s="24"/>
-    </row>
-    <row r="324" ht="12.75" customHeight="1">
-      <c r="D324" s="24"/>
-    </row>
-    <row r="325" ht="12.75" customHeight="1">
-      <c r="D325" s="24"/>
-    </row>
-    <row r="326" ht="12.75" customHeight="1">
-      <c r="D326" s="24"/>
-    </row>
-    <row r="327" ht="12.75" customHeight="1">
-      <c r="D327" s="24"/>
-    </row>
-    <row r="328" ht="12.75" customHeight="1">
-      <c r="D328" s="24"/>
-    </row>
-    <row r="329" ht="12.75" customHeight="1">
-      <c r="D329" s="24"/>
-    </row>
-    <row r="330" ht="12.75" customHeight="1">
-      <c r="D330" s="24"/>
-    </row>
-    <row r="331" ht="12.75" customHeight="1">
-      <c r="D331" s="24"/>
-    </row>
-    <row r="332" ht="12.75" customHeight="1">
-      <c r="D332" s="24"/>
-    </row>
-    <row r="333" ht="12.75" customHeight="1">
-      <c r="D333" s="24"/>
-    </row>
-    <row r="334" ht="12.75" customHeight="1">
-      <c r="D334" s="24"/>
-    </row>
-    <row r="335" ht="12.75" customHeight="1">
-      <c r="D335" s="24"/>
-    </row>
-    <row r="336" ht="12.75" customHeight="1">
-      <c r="D336" s="24"/>
-    </row>
-    <row r="337" ht="12.75" customHeight="1">
-      <c r="D337" s="24"/>
-    </row>
-    <row r="338" ht="12.75" customHeight="1">
-      <c r="D338" s="24"/>
-    </row>
-    <row r="339" ht="12.75" customHeight="1">
-      <c r="D339" s="24"/>
-    </row>
-    <row r="340" ht="12.75" customHeight="1">
-      <c r="D340" s="24"/>
-    </row>
-    <row r="341" ht="12.75" customHeight="1">
-      <c r="D341" s="24"/>
-    </row>
-    <row r="342" ht="12.75" customHeight="1">
-      <c r="D342" s="24"/>
-    </row>
-    <row r="343" ht="12.75" customHeight="1">
-      <c r="D343" s="24"/>
-    </row>
-    <row r="344" ht="12.75" customHeight="1">
-      <c r="D344" s="24"/>
-    </row>
-    <row r="345" ht="12.75" customHeight="1">
-      <c r="D345" s="24"/>
-    </row>
-    <row r="346" ht="12.75" customHeight="1">
-      <c r="D346" s="24"/>
-    </row>
-    <row r="347" ht="12.75" customHeight="1">
-      <c r="D347" s="24"/>
-    </row>
-    <row r="348" ht="12.75" customHeight="1">
-      <c r="D348" s="24"/>
-    </row>
-    <row r="349" ht="12.75" customHeight="1">
-      <c r="D349" s="24"/>
-    </row>
-    <row r="350" ht="12.75" customHeight="1">
-      <c r="D350" s="24"/>
-    </row>
-    <row r="351" ht="12.75" customHeight="1">
-      <c r="D351" s="24"/>
-    </row>
-    <row r="352" ht="12.75" customHeight="1">
-      <c r="D352" s="24"/>
-    </row>
-    <row r="353" ht="12.75" customHeight="1">
-      <c r="D353" s="24"/>
-    </row>
-    <row r="354" ht="12.75" customHeight="1">
-      <c r="D354" s="24"/>
-    </row>
-    <row r="355" ht="12.75" customHeight="1">
-      <c r="D355" s="24"/>
-    </row>
-    <row r="356" ht="12.75" customHeight="1">
-      <c r="D356" s="24"/>
-    </row>
-    <row r="357" ht="12.75" customHeight="1">
-      <c r="D357" s="24"/>
-    </row>
-    <row r="358" ht="12.75" customHeight="1">
-      <c r="D358" s="24"/>
-    </row>
-    <row r="359" ht="12.75" customHeight="1">
-      <c r="D359" s="24"/>
-    </row>
-    <row r="360" ht="12.75" customHeight="1">
-      <c r="D360" s="24"/>
-    </row>
-    <row r="361" ht="12.75" customHeight="1">
-      <c r="D361" s="24"/>
-    </row>
-    <row r="362" ht="12.75" customHeight="1">
-      <c r="D362" s="24"/>
-    </row>
-    <row r="363" ht="12.75" customHeight="1">
-      <c r="D363" s="24"/>
-    </row>
-    <row r="364" ht="12.75" customHeight="1">
-      <c r="D364" s="24"/>
-    </row>
-    <row r="365" ht="12.75" customHeight="1">
-      <c r="D365" s="24"/>
-    </row>
-    <row r="366" ht="12.75" customHeight="1">
-      <c r="D366" s="24"/>
-    </row>
-    <row r="367" ht="12.75" customHeight="1">
-      <c r="D367" s="24"/>
-    </row>
-    <row r="368" ht="12.75" customHeight="1">
-      <c r="D368" s="24"/>
-    </row>
-    <row r="369" ht="12.75" customHeight="1">
-      <c r="D369" s="24"/>
-    </row>
-    <row r="370" ht="12.75" customHeight="1">
-      <c r="D370" s="24"/>
-    </row>
-    <row r="371" ht="12.75" customHeight="1">
-      <c r="D371" s="24"/>
-    </row>
-    <row r="372" ht="12.75" customHeight="1">
-      <c r="D372" s="24"/>
-    </row>
-    <row r="373" ht="12.75" customHeight="1">
-      <c r="D373" s="24"/>
-    </row>
-    <row r="374" ht="12.75" customHeight="1">
-      <c r="D374" s="24"/>
-    </row>
-    <row r="375" ht="12.75" customHeight="1">
-      <c r="D375" s="24"/>
-    </row>
-    <row r="376" ht="12.75" customHeight="1">
-      <c r="D376" s="24"/>
-    </row>
-    <row r="377" ht="12.75" customHeight="1">
-      <c r="D377" s="24"/>
-    </row>
-    <row r="378" ht="12.75" customHeight="1">
-      <c r="D378" s="24"/>
-    </row>
-    <row r="379" ht="12.75" customHeight="1">
-      <c r="D379" s="24"/>
-    </row>
-    <row r="380" ht="12.75" customHeight="1">
-      <c r="D380" s="24"/>
-    </row>
-    <row r="381" ht="12.75" customHeight="1">
-      <c r="D381" s="24"/>
-    </row>
-    <row r="382" ht="12.75" customHeight="1">
-      <c r="D382" s="24"/>
-    </row>
-    <row r="383" ht="12.75" customHeight="1">
-      <c r="D383" s="24"/>
-    </row>
-    <row r="384" ht="12.75" customHeight="1">
-      <c r="D384" s="24"/>
-    </row>
-    <row r="385" ht="12.75" customHeight="1">
-      <c r="D385" s="24"/>
-    </row>
-    <row r="386" ht="12.75" customHeight="1">
-      <c r="D386" s="24"/>
-    </row>
-    <row r="387" ht="12.75" customHeight="1">
-      <c r="D387" s="24"/>
-    </row>
-    <row r="388" ht="12.75" customHeight="1">
-      <c r="D388" s="24"/>
-    </row>
-    <row r="389" ht="12.75" customHeight="1">
-      <c r="D389" s="24"/>
-    </row>
-    <row r="390" ht="12.75" customHeight="1">
-      <c r="D390" s="24"/>
-    </row>
-    <row r="391" ht="12.75" customHeight="1">
-      <c r="D391" s="24"/>
-    </row>
-    <row r="392" ht="12.75" customHeight="1">
-      <c r="D392" s="24"/>
-    </row>
-    <row r="393" ht="12.75" customHeight="1">
-      <c r="D393" s="24"/>
-    </row>
-    <row r="394" ht="12.75" customHeight="1">
-      <c r="D394" s="24"/>
-    </row>
-    <row r="395" ht="12.75" customHeight="1">
-      <c r="D395" s="24"/>
-    </row>
-    <row r="396" ht="12.75" customHeight="1">
-      <c r="D396" s="24"/>
-    </row>
-    <row r="397" ht="12.75" customHeight="1">
-      <c r="D397" s="24"/>
-    </row>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="26"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="26"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="26"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="26"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="26"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="26"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="26"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="26"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="26"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="26"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="26"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="26"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="26"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="26"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="26"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="26"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="26"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="26"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="26"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="26"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="26"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="D242" s="26"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="D243" s="26"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="D244" s="26"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="D245" s="26"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="D246" s="26"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="D247" s="26"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="D248" s="26"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="D249" s="26"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="D250" s="26"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="D251" s="26"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="D252" s="26"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="D253" s="26"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="D254" s="26"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="D255" s="26"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="D256" s="26"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="D257" s="26"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="D258" s="26"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="D259" s="26"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="D260" s="26"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="D261" s="26"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="D262" s="26"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="D263" s="26"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="D264" s="26"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="D265" s="26"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="D266" s="26"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="D267" s="26"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="D268" s="26"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="D269" s="26"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="D270" s="26"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="D271" s="26"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="D272" s="26"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="D273" s="26"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="D274" s="26"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="D275" s="26"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="D276" s="26"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="D277" s="26"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="D278" s="26"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="D279" s="26"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="D280" s="26"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="D281" s="26"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="D282" s="26"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="D283" s="26"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="D284" s="26"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="D285" s="26"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="D286" s="26"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="D287" s="26"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="D288" s="26"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="D289" s="26"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="D290" s="26"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="D291" s="26"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="D292" s="26"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="D293" s="26"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="D294" s="26"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="D295" s="26"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="D296" s="26"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="D297" s="26"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="D298" s="26"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="D299" s="26"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="D300" s="26"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="D301" s="26"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="D302" s="26"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="D303" s="26"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="D304" s="26"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="D305" s="26"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="D306" s="26"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="D307" s="26"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="D308" s="26"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="D309" s="26"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="D310" s="26"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="D311" s="26"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="D312" s="26"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="D313" s="26"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="D314" s="26"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="D315" s="26"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="D316" s="26"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="D317" s="26"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="D318" s="26"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="D319" s="26"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="D320" s="26"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="D321" s="26"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="D322" s="26"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="D323" s="26"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="D324" s="26"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="D325" s="26"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="D326" s="26"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="D327" s="26"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="D328" s="26"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="D329" s="26"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="D330" s="26"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="D331" s="26"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="D332" s="26"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="D333" s="26"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="D334" s="26"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="D335" s="26"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="D336" s="26"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="D337" s="26"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="D338" s="26"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="D339" s="26"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="D340" s="26"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="D341" s="26"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="D342" s="26"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="D343" s="26"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="D344" s="26"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="D345" s="26"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="D346" s="26"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="D347" s="26"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="D348" s="26"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="D349" s="26"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="D350" s="26"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="D351" s="26"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="D352" s="26"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="D353" s="26"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="D354" s="26"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="D355" s="26"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="D356" s="26"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="D357" s="26"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="D358" s="26"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="D359" s="26"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="D360" s="26"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="D361" s="26"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="D362" s="26"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="D363" s="26"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="D364" s="26"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="D365" s="26"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="D366" s="26"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="D367" s="26"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="D368" s="26"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="D369" s="26"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="D370" s="26"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="D371" s="26"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="D372" s="26"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="D373" s="26"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="D374" s="26"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="D375" s="26"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="D376" s="26"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="D377" s="26"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="D378" s="26"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="D379" s="26"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="D380" s="26"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="D381" s="26"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="D382" s="26"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="D383" s="26"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="D384" s="26"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="D385" s="26"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="D386" s="26"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="D387" s="26"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="D388" s="26"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="D389" s="26"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="D390" s="26"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="D391" s="26"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="D392" s="26"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="D393" s="26"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="D394" s="26"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="D395" s="26"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="D396" s="26"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="D397" s="26"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A9:C9"/>
@@ -3701,60 +3693,60 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="47.29"/>
-    <col customWidth="1" min="3" max="26" width="10.71"/>
+    <col customWidth="1" min="3" max="6" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -3762,7 +3754,7 @@
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -3770,7 +3762,7 @@
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -3778,7 +3770,7 @@
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -3786,7 +3778,7 @@
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -3794,7 +3786,7 @@
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -3802,7 +3794,7 @@
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -3810,7 +3802,7 @@
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3818,7 +3810,7 @@
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -3826,7 +3818,7 @@
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -3834,7 +3826,7 @@
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -3842,7 +3834,7 @@
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -3850,7 +3842,7 @@
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -3858,7 +3850,7 @@
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -3866,7 +3858,7 @@
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -3874,1412 +3866,1377 @@
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="30" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="30" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30" t="s">
+      <c r="A67" s="30"/>
+      <c r="B67" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30" t="s">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="31" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30" t="s">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30" t="s">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="30" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="30" t="s">
+      <c r="A75" s="30"/>
+      <c r="B75" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="31" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30" t="s">
+      <c r="A77" s="30"/>
+      <c r="B77" s="31" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="30" t="s">
+      <c r="A78" s="30"/>
+      <c r="B78" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="30" t="s">
+      <c r="A80" s="30"/>
+      <c r="B80" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="30" t="s">
+      <c r="A81" s="30"/>
+      <c r="B81" s="31" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="30" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="31" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="30" t="s">
+      <c r="A83" s="30"/>
+      <c r="B83" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="30" t="s">
+      <c r="A84" s="30"/>
+      <c r="B84" s="31" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="30" t="s">
+      <c r="A85" s="30"/>
+      <c r="B85" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="30" t="s">
+      <c r="A86" s="30"/>
+      <c r="B86" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="29"/>
-      <c r="B87" s="30" t="s">
+      <c r="A87" s="30"/>
+      <c r="B87" s="31" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="30" t="s">
+      <c r="A88" s="30"/>
+      <c r="B88" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="30" t="s">
+      <c r="A89" s="30"/>
+      <c r="B89" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="30" t="s">
+      <c r="A90" s="30"/>
+      <c r="B90" s="31" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="30" t="s">
+      <c r="A91" s="30"/>
+      <c r="B91" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30" t="s">
+      <c r="A92" s="30"/>
+      <c r="B92" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="30" t="s">
+      <c r="A93" s="30"/>
+      <c r="B93" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="30" t="s">
+      <c r="A94" s="30"/>
+      <c r="B94" s="31" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="30" t="s">
+      <c r="A95" s="30"/>
+      <c r="B95" s="31" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="30" t="s">
+      <c r="A96" s="30"/>
+      <c r="B96" s="31" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="30" t="s">
+      <c r="A97" s="30"/>
+      <c r="B97" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="30" t="s">
+      <c r="A98" s="30"/>
+      <c r="B98" s="31" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="30" t="s">
+      <c r="A99" s="30"/>
+      <c r="B99" s="31" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="30" t="s">
+      <c r="A100" s="30"/>
+      <c r="B100" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="30" t="s">
+      <c r="A101" s="30"/>
+      <c r="B101" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="29"/>
-      <c r="B102" s="30" t="s">
+      <c r="A102" s="30"/>
+      <c r="B102" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="29"/>
-      <c r="B103" s="30" t="s">
+      <c r="A103" s="30"/>
+      <c r="B103" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="29"/>
-      <c r="B104" s="30" t="s">
+      <c r="A104" s="30"/>
+      <c r="B104" s="31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="29"/>
-      <c r="B105" s="30" t="s">
+      <c r="A105" s="30"/>
+      <c r="B105" s="31" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="30" t="s">
+      <c r="A106" s="30"/>
+      <c r="B106" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="30" t="s">
+      <c r="A107" s="30"/>
+      <c r="B107" s="31" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="29"/>
-      <c r="B108" s="30" t="s">
+      <c r="A108" s="30"/>
+      <c r="B108" s="31" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="29"/>
-      <c r="B109" s="30" t="s">
+      <c r="A109" s="30"/>
+      <c r="B109" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="29"/>
-      <c r="B110" s="30" t="s">
+      <c r="A110" s="30"/>
+      <c r="B110" s="31" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="30" t="s">
+      <c r="A111" s="30"/>
+      <c r="B111" s="31" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="29"/>
-      <c r="B112" s="30" t="s">
+      <c r="A112" s="30"/>
+      <c r="B112" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="29"/>
-      <c r="B113" s="30" t="s">
+      <c r="A113" s="30"/>
+      <c r="B113" s="31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="30" t="s">
+      <c r="A114" s="30"/>
+      <c r="B114" s="31" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="29"/>
-      <c r="B115" s="30" t="s">
+      <c r="A115" s="30"/>
+      <c r="B115" s="31" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30" t="s">
+      <c r="A116" s="30"/>
+      <c r="B116" s="31" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30" t="s">
+      <c r="A117" s="30"/>
+      <c r="B117" s="31" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="29"/>
-      <c r="B118" s="30" t="s">
+      <c r="A118" s="30"/>
+      <c r="B118" s="31" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="29"/>
-      <c r="B119" s="30" t="s">
+      <c r="A119" s="30"/>
+      <c r="B119" s="31" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="30" t="s">
+      <c r="A120" s="30"/>
+      <c r="B120" s="31" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="30" t="s">
+      <c r="A121" s="30"/>
+      <c r="B121" s="31" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="29"/>
-      <c r="B122" s="30" t="s">
+      <c r="A122" s="30"/>
+      <c r="B122" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="29"/>
-      <c r="B123" s="30" t="s">
+      <c r="A123" s="30"/>
+      <c r="B123" s="31" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="30" t="s">
+      <c r="A124" s="30"/>
+      <c r="B124" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="29"/>
-      <c r="B125" s="30" t="s">
+      <c r="A125" s="30"/>
+      <c r="B125" s="31" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="29"/>
-      <c r="B126" s="30" t="s">
+      <c r="A126" s="30"/>
+      <c r="B126" s="31" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="29"/>
-      <c r="B127" s="30" t="s">
+      <c r="A127" s="30"/>
+      <c r="B127" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="29"/>
-      <c r="B128" s="30" t="s">
+      <c r="A128" s="30"/>
+      <c r="B128" s="31" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="29"/>
-      <c r="B129" s="30" t="s">
+      <c r="A129" s="30"/>
+      <c r="B129" s="31" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="29"/>
-      <c r="B130" s="30" t="s">
+      <c r="A130" s="30"/>
+      <c r="B130" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="29"/>
-      <c r="B131" s="30" t="s">
+      <c r="A131" s="30"/>
+      <c r="B131" s="31" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="29"/>
-      <c r="B132" s="30" t="s">
+      <c r="A132" s="30"/>
+      <c r="B132" s="31" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30" t="s">
+      <c r="A133" s="30"/>
+      <c r="B133" s="31" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="29"/>
-      <c r="B134" s="30" t="s">
+      <c r="A134" s="30"/>
+      <c r="B134" s="31" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="29"/>
-      <c r="B135" s="30" t="s">
+      <c r="A135" s="30"/>
+      <c r="B135" s="31" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="29"/>
-      <c r="B136" s="30" t="s">
+      <c r="A136" s="30"/>
+      <c r="B136" s="31" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="29"/>
-      <c r="B137" s="30" t="s">
+      <c r="A137" s="30"/>
+      <c r="B137" s="31" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="29"/>
-      <c r="B138" s="30" t="s">
+      <c r="A138" s="30"/>
+      <c r="B138" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="29"/>
-      <c r="B139" s="30" t="s">
+      <c r="A139" s="30"/>
+      <c r="B139" s="31" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30" t="s">
+      <c r="A140" s="30"/>
+      <c r="B140" s="31" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="29"/>
-      <c r="B141" s="30" t="s">
+      <c r="A141" s="30"/>
+      <c r="B141" s="31" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="29"/>
-      <c r="B142" s="30" t="s">
+      <c r="A142" s="30"/>
+      <c r="B142" s="31" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="29"/>
-      <c r="B143" s="30" t="s">
+      <c r="A143" s="30"/>
+      <c r="B143" s="31" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="29"/>
-      <c r="B144" s="30" t="s">
+      <c r="A144" s="30"/>
+      <c r="B144" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30" t="s">
+      <c r="A145" s="30"/>
+      <c r="B145" s="31" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="29"/>
-      <c r="B146" s="30" t="s">
+      <c r="A146" s="30"/>
+      <c r="B146" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="29"/>
-      <c r="B147" s="30" t="s">
+      <c r="A147" s="30"/>
+      <c r="B147" s="31" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="29"/>
-      <c r="B148" s="30" t="s">
+      <c r="A148" s="30"/>
+      <c r="B148" s="31" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="29"/>
-      <c r="B149" s="30" t="s">
+      <c r="A149" s="30"/>
+      <c r="B149" s="31" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="29"/>
-      <c r="B150" s="30" t="s">
+      <c r="A150" s="30"/>
+      <c r="B150" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="29"/>
-      <c r="B151" s="30" t="s">
+      <c r="A151" s="30"/>
+      <c r="B151" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30" t="s">
+      <c r="A152" s="30"/>
+      <c r="B152" s="31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="29"/>
-      <c r="B153" s="30" t="s">
+      <c r="A153" s="30"/>
+      <c r="B153" s="31" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="29"/>
-      <c r="B154" s="30" t="s">
+      <c r="A154" s="30"/>
+      <c r="B154" s="31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="29"/>
-      <c r="B155" s="30" t="s">
+      <c r="A155" s="30"/>
+      <c r="B155" s="31" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="29"/>
-      <c r="B156" s="30" t="s">
+      <c r="A156" s="30"/>
+      <c r="B156" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="29"/>
-      <c r="B157" s="30" t="s">
+      <c r="A157" s="30"/>
+      <c r="B157" s="31" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="29"/>
-      <c r="B158" s="30" t="s">
+      <c r="A158" s="30"/>
+      <c r="B158" s="31" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="29"/>
-      <c r="B159" s="30" t="s">
+      <c r="A159" s="30"/>
+      <c r="B159" s="31" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="29"/>
-      <c r="B160" s="30" t="s">
+      <c r="A160" s="30"/>
+      <c r="B160" s="31" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="29"/>
-      <c r="B161" s="30" t="s">
+      <c r="A161" s="30"/>
+      <c r="B161" s="31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="29"/>
-      <c r="B162" s="30" t="s">
+      <c r="A162" s="30"/>
+      <c r="B162" s="31" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="29"/>
-      <c r="B163" s="30" t="s">
+      <c r="A163" s="30"/>
+      <c r="B163" s="31" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="29"/>
-      <c r="B164" s="30" t="s">
+      <c r="A164" s="30"/>
+      <c r="B164" s="31" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="29"/>
-      <c r="B165" s="30" t="s">
+      <c r="A165" s="30"/>
+      <c r="B165" s="31" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="29"/>
-      <c r="B166" s="30" t="s">
+      <c r="A166" s="30"/>
+      <c r="B166" s="31" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="29"/>
-      <c r="B167" s="30" t="s">
+      <c r="A167" s="30"/>
+      <c r="B167" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="29"/>
-      <c r="B168" s="30" t="s">
+      <c r="A168" s="30"/>
+      <c r="B168" s="31" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="29"/>
-      <c r="B169" s="30" t="s">
+      <c r="A169" s="30"/>
+      <c r="B169" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="29"/>
-      <c r="B170" s="30" t="s">
+      <c r="A170" s="30"/>
+      <c r="B170" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="29"/>
-      <c r="B171" s="30" t="s">
+      <c r="A171" s="30"/>
+      <c r="B171" s="31" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="29"/>
-      <c r="B172" s="30" t="s">
+      <c r="A172" s="30"/>
+      <c r="B172" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="29"/>
-      <c r="B173" s="30" t="s">
+      <c r="A173" s="30"/>
+      <c r="B173" s="31" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="29"/>
-      <c r="B174" s="30" t="s">
+      <c r="A174" s="30"/>
+      <c r="B174" s="31" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="29"/>
-      <c r="B175" s="30" t="s">
+      <c r="A175" s="30"/>
+      <c r="B175" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="29"/>
-      <c r="B176" s="30" t="s">
+      <c r="A176" s="30"/>
+      <c r="B176" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="29"/>
-      <c r="B177" s="30" t="s">
+      <c r="A177" s="30"/>
+      <c r="B177" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="29"/>
-      <c r="B178" s="30" t="s">
+      <c r="A178" s="30"/>
+      <c r="B178" s="31" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="29"/>
-      <c r="B179" s="30" t="s">
+      <c r="A179" s="30"/>
+      <c r="B179" s="31" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="29"/>
-      <c r="B180" s="30" t="s">
+      <c r="A180" s="30"/>
+      <c r="B180" s="31" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="29"/>
-      <c r="B181" s="30" t="s">
+      <c r="A181" s="30"/>
+      <c r="B181" s="31" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="29"/>
-      <c r="B182" s="30" t="s">
+      <c r="A182" s="30"/>
+      <c r="B182" s="31" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="29"/>
-      <c r="B183" s="30" t="s">
+      <c r="A183" s="30"/>
+      <c r="B183" s="31" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="29"/>
-      <c r="B184" s="30" t="s">
+      <c r="A184" s="30"/>
+      <c r="B184" s="31" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="29"/>
-      <c r="B185" s="30" t="s">
+      <c r="A185" s="30"/>
+      <c r="B185" s="31" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="29"/>
-      <c r="B186" s="30" t="s">
+      <c r="A186" s="30"/>
+      <c r="B186" s="31" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="29"/>
-      <c r="B187" s="30" t="s">
+      <c r="A187" s="30"/>
+      <c r="B187" s="31" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="29"/>
-      <c r="B188" s="30" t="s">
+      <c r="A188" s="30"/>
+      <c r="B188" s="31" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="29"/>
-      <c r="B189" s="30" t="s">
+      <c r="A189" s="30"/>
+      <c r="B189" s="31" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="29"/>
-      <c r="B190" s="30" t="s">
+      <c r="A190" s="30"/>
+      <c r="B190" s="31" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="29"/>
-      <c r="B191" s="30" t="s">
+      <c r="A191" s="30"/>
+      <c r="B191" s="31" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="29"/>
-      <c r="B192" s="30" t="s">
+      <c r="A192" s="30"/>
+      <c r="B192" s="31" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="29"/>
-      <c r="B193" s="30" t="s">
+      <c r="A193" s="30"/>
+      <c r="B193" s="31" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="29"/>
-      <c r="B194" s="30" t="s">
+      <c r="A194" s="30"/>
+      <c r="B194" s="31" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="29"/>
-      <c r="B195" s="30" t="s">
+      <c r="A195" s="30"/>
+      <c r="B195" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="29"/>
-      <c r="B196" s="30" t="s">
+      <c r="A196" s="30"/>
+      <c r="B196" s="31" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="29"/>
-      <c r="B197" s="30" t="s">
+      <c r="A197" s="30"/>
+      <c r="B197" s="31" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="29"/>
-      <c r="B198" s="30" t="s">
+      <c r="A198" s="30"/>
+      <c r="B198" s="31" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="29"/>
-      <c r="B199" s="30" t="s">
+      <c r="A199" s="30"/>
+      <c r="B199" s="31" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="29"/>
-      <c r="B200" s="30" t="s">
+      <c r="A200" s="30"/>
+      <c r="B200" s="31" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="29"/>
-      <c r="B201" s="30" t="s">
+      <c r="A201" s="30"/>
+      <c r="B201" s="31" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="A202" s="29"/>
-      <c r="B202" s="30" t="s">
+      <c r="A202" s="30"/>
+      <c r="B202" s="31" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="29"/>
-      <c r="B203" s="30" t="s">
+      <c r="A203" s="30"/>
+      <c r="B203" s="31" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="29"/>
-      <c r="B204" s="30" t="s">
+      <c r="A204" s="30"/>
+      <c r="B204" s="31" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="A205" s="29"/>
-      <c r="B205" s="30" t="s">
+      <c r="A205" s="30"/>
+      <c r="B205" s="31" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="A206" s="29"/>
-      <c r="B206" s="30" t="s">
+      <c r="A206" s="30"/>
+      <c r="B206" s="31" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="A207" s="29"/>
-      <c r="B207" s="30" t="s">
+      <c r="A207" s="30"/>
+      <c r="B207" s="31" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="A208" s="29"/>
-      <c r="B208" s="30" t="s">
+      <c r="A208" s="30"/>
+      <c r="B208" s="31" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="A209" s="29"/>
-      <c r="B209" s="30" t="s">
+      <c r="A209" s="30"/>
+      <c r="B209" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="A210" s="29"/>
-      <c r="B210" s="30" t="s">
+      <c r="A210" s="30"/>
+      <c r="B210" s="31" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="A211" s="29"/>
-      <c r="B211" s="30" t="s">
+      <c r="A211" s="30"/>
+      <c r="B211" s="31" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="A212" s="29"/>
-      <c r="B212" s="30" t="s">
+      <c r="A212" s="30"/>
+      <c r="B212" s="31" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="A213" s="29"/>
-      <c r="B213" s="30" t="s">
+      <c r="A213" s="30"/>
+      <c r="B213" s="31" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="A214" s="29"/>
-      <c r="B214" s="30" t="s">
+      <c r="A214" s="30"/>
+      <c r="B214" s="31" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="A215" s="29"/>
-      <c r="B215" s="30" t="s">
+      <c r="A215" s="30"/>
+      <c r="B215" s="31" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="29"/>
-      <c r="B216" s="30" t="s">
+      <c r="A216" s="30"/>
+      <c r="B216" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="29"/>
-      <c r="B217" s="30" t="s">
+      <c r="A217" s="30"/>
+      <c r="B217" s="31" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="A218" s="29"/>
-      <c r="B218" s="30" t="s">
+      <c r="A218" s="30"/>
+      <c r="B218" s="31" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="A219" s="29"/>
-      <c r="B219" s="30" t="s">
+      <c r="A219" s="30"/>
+      <c r="B219" s="31" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="A220" s="29"/>
-      <c r="B220" s="30" t="s">
+      <c r="A220" s="30"/>
+      <c r="B220" s="31" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="A221" s="29"/>
-      <c r="B221" s="30" t="s">
+      <c r="A221" s="30"/>
+      <c r="B221" s="31" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="A222" s="29"/>
-      <c r="B222" s="30" t="s">
+      <c r="A222" s="30"/>
+      <c r="B222" s="31" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="A223" s="29"/>
-      <c r="B223" s="30" t="s">
+      <c r="A223" s="30"/>
+      <c r="B223" s="31" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="A224" s="29"/>
-      <c r="B224" s="30" t="s">
+      <c r="A224" s="30"/>
+      <c r="B224" s="31" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="A225" s="29"/>
-      <c r="B225" s="30" t="s">
+      <c r="A225" s="30"/>
+      <c r="B225" s="31" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="A226" s="29"/>
-      <c r="B226" s="30" t="s">
+      <c r="A226" s="30"/>
+      <c r="B226" s="31" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="A227" s="29"/>
-      <c r="B227" s="30" t="s">
+      <c r="A227" s="30"/>
+      <c r="B227" s="31" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="A228" s="29"/>
-      <c r="B228" s="30" t="s">
+      <c r="A228" s="30"/>
+      <c r="B228" s="31" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="29"/>
-      <c r="B229" s="30" t="s">
+      <c r="A229" s="30"/>
+      <c r="B229" s="31" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="A230" s="29"/>
-      <c r="B230" s="30" t="s">
+      <c r="A230" s="30"/>
+      <c r="B230" s="31" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="A231" s="29"/>
-      <c r="B231" s="30" t="s">
+      <c r="A231" s="30"/>
+      <c r="B231" s="31" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="A232" s="29"/>
-      <c r="B232" s="30" t="s">
+      <c r="A232" s="30"/>
+      <c r="B232" s="31" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="A233" s="29"/>
-      <c r="B233" s="30" t="s">
+      <c r="A233" s="30"/>
+      <c r="B233" s="31" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="29"/>
-      <c r="B234" s="30" t="s">
+      <c r="A234" s="30"/>
+      <c r="B234" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="A235" s="29"/>
-      <c r="B235" s="30" t="s">
+      <c r="A235" s="30"/>
+      <c r="B235" s="31" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="A236" s="29"/>
-      <c r="B236" s="30" t="s">
+      <c r="A236" s="30"/>
+      <c r="B236" s="31" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="A237" s="29"/>
-      <c r="B237" s="30" t="s">
+      <c r="A237" s="30"/>
+      <c r="B237" s="31" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="A238" s="29"/>
-      <c r="B238" s="30" t="s">
+      <c r="A238" s="30"/>
+      <c r="B238" s="31" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="29"/>
-      <c r="B239" s="30" t="s">
+      <c r="A239" s="30"/>
+      <c r="B239" s="31" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="29"/>
-      <c r="B240" s="30" t="s">
+      <c r="A240" s="30"/>
+      <c r="B240" s="31" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="A241" s="29"/>
-      <c r="B241" s="30" t="s">
+      <c r="A241" s="30"/>
+      <c r="B241" s="31" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="A242" s="29"/>
-      <c r="B242" s="32" t="s">
+      <c r="A242" s="30"/>
+      <c r="B242" s="31" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="29"/>
-      <c r="B243" s="32" t="s">
-        <v>296</v>
-      </c>
+      <c r="A243" s="30"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="A244" s="29"/>
-      <c r="B244" s="32" t="s">
-        <v>297</v>
-      </c>
+      <c r="A244" s="30"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="A245" s="29"/>
-      <c r="B245" s="32" t="s">
-        <v>290</v>
-      </c>
+      <c r="A245" s="30"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="A246" s="29"/>
-      <c r="B246" s="32" t="s">
-        <v>298</v>
-      </c>
+      <c r="A246" s="30"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="A247" s="29"/>
-      <c r="B247" s="32" t="s">
-        <v>292</v>
-      </c>
+      <c r="A247" s="30"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="A248" s="29"/>
-      <c r="B248" s="32" t="s">
-        <v>293</v>
-      </c>
+      <c r="A248" s="30"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="A249" s="29"/>
-      <c r="B249" s="32" t="s">
-        <v>294</v>
-      </c>
+      <c r="A249" s="30"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="A250" s="29"/>
-      <c r="B250" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="A250" s="30"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="A251" s="29"/>
-      <c r="B251" s="32" t="s">
-        <v>299</v>
-      </c>
+      <c r="A251" s="30"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="A252" s="29"/>
-      <c r="B252" s="32" t="s">
-        <v>292</v>
-      </c>
+      <c r="A252" s="30"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="A253" s="29"/>
-      <c r="B253" s="32" t="s">
-        <v>293</v>
-      </c>
+      <c r="A253" s="30"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="32"/>
-      <c r="B254" s="33"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="33"/>
-      <c r="B255" s="33"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="33"/>
@@ -5470,564 +5427,564 @@
     <row r="440" ht="12.75" customHeight="1"/>
     <row r="441" ht="12.75" customHeight="1"/>
     <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
